--- a/simulations/cleaned_inclusion_exclusion/van_Dis_2020 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/van_Dis_2020 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -422,10 +422,10 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -444,10 +444,10 @@
         <v>44</v>
       </c>
       <c r="C5">
-        <v>983</v>
+        <v>934</v>
       </c>
       <c r="D5">
-        <v>983</v>
+        <v>934</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -466,10 +466,10 @@
         <v>47</v>
       </c>
       <c r="C7">
-        <v>164</v>
+        <v>292</v>
       </c>
       <c r="D7">
-        <v>164</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -488,10 +488,10 @@
         <v>109</v>
       </c>
       <c r="C9">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="D9">
-        <v>130</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -510,10 +510,10 @@
         <v>126</v>
       </c>
       <c r="C11">
-        <v>1108</v>
+        <v>1051</v>
       </c>
       <c r="D11">
-        <v>1108</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -532,10 +532,10 @@
         <v>258</v>
       </c>
       <c r="C13">
-        <v>607</v>
+        <v>655</v>
       </c>
       <c r="D13">
-        <v>607</v>
+        <v>655</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -565,10 +565,10 @@
         <v>499</v>
       </c>
       <c r="C16">
-        <v>269</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>269</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -576,10 +576,10 @@
         <v>500</v>
       </c>
       <c r="C17">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="D17">
-        <v>492</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -598,10 +598,10 @@
         <v>566</v>
       </c>
       <c r="C19">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="D19">
-        <v>155</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -620,10 +620,10 @@
         <v>755</v>
       </c>
       <c r="C21">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="D21">
-        <v>108</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -642,10 +642,10 @@
         <v>998</v>
       </c>
       <c r="C23">
-        <v>880</v>
+        <v>828</v>
       </c>
       <c r="D23">
-        <v>880</v>
+        <v>828</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -664,10 +664,10 @@
         <v>1216</v>
       </c>
       <c r="C25">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>267</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -686,10 +686,10 @@
         <v>1347</v>
       </c>
       <c r="C27">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="D27">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -708,10 +708,10 @@
         <v>1480</v>
       </c>
       <c r="C29">
-        <v>760</v>
+        <v>612</v>
       </c>
       <c r="D29">
-        <v>760</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -741,10 +741,10 @@
         <v>1566</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -752,10 +752,10 @@
         <v>1567</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="D33">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -774,10 +774,10 @@
         <v>1599</v>
       </c>
       <c r="C35">
-        <v>1097</v>
+        <v>1400</v>
       </c>
       <c r="D35">
-        <v>1097</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -796,10 +796,10 @@
         <v>1666</v>
       </c>
       <c r="C37">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="D37">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -818,10 +818,10 @@
         <v>1715</v>
       </c>
       <c r="C39">
-        <v>2717</v>
+        <v>2764</v>
       </c>
       <c r="D39">
-        <v>2717</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -840,10 +840,10 @@
         <v>1796</v>
       </c>
       <c r="C41">
-        <v>903</v>
+        <v>713</v>
       </c>
       <c r="D41">
-        <v>903</v>
+        <v>713</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -851,10 +851,10 @@
         <v>1826</v>
       </c>
       <c r="C42">
-        <v>701</v>
+        <v>519</v>
       </c>
       <c r="D42">
-        <v>701</v>
+        <v>519</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -873,10 +873,10 @@
         <v>2410</v>
       </c>
       <c r="C44">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="D44">
-        <v>256</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -895,10 +895,10 @@
         <v>2599</v>
       </c>
       <c r="C46">
-        <v>2080</v>
+        <v>1985</v>
       </c>
       <c r="D46">
-        <v>2080</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -917,10 +917,10 @@
         <v>2674</v>
       </c>
       <c r="C48">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="D48">
-        <v>241</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -939,10 +939,10 @@
         <v>2709</v>
       </c>
       <c r="C50">
-        <v>1396</v>
+        <v>1623</v>
       </c>
       <c r="D50">
-        <v>1396</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -961,10 +961,10 @@
         <v>2805</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -983,10 +983,10 @@
         <v>2814</v>
       </c>
       <c r="C54">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D54">
-        <v>123</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1005,10 +1005,10 @@
         <v>3022</v>
       </c>
       <c r="C56">
-        <v>985</v>
+        <v>937</v>
       </c>
       <c r="D56">
-        <v>985</v>
+        <v>937</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1027,10 +1027,10 @@
         <v>3110</v>
       </c>
       <c r="C58">
-        <v>4577</v>
+        <v>4236</v>
       </c>
       <c r="D58">
-        <v>4577</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1049,10 +1049,10 @@
         <v>3160</v>
       </c>
       <c r="C60">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="D60">
-        <v>192</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1071,10 +1071,10 @@
         <v>3164</v>
       </c>
       <c r="C62">
-        <v>4209</v>
+        <v>4186</v>
       </c>
       <c r="D62">
-        <v>4209</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1093,10 +1093,10 @@
         <v>3288</v>
       </c>
       <c r="C64">
-        <v>393</v>
+        <v>555</v>
       </c>
       <c r="D64">
-        <v>393</v>
+        <v>555</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1115,10 +1115,10 @@
         <v>3388</v>
       </c>
       <c r="C66">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="D66">
-        <v>234</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1137,10 +1137,10 @@
         <v>3434</v>
       </c>
       <c r="C68">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D68">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1159,10 +1159,10 @@
         <v>3524</v>
       </c>
       <c r="C70">
-        <v>1715</v>
+        <v>1746</v>
       </c>
       <c r="D70">
-        <v>1715</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1181,10 +1181,10 @@
         <v>3826</v>
       </c>
       <c r="C72">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D72">
-        <v>66</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1203,10 +1203,10 @@
         <v>4011</v>
       </c>
       <c r="C74">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="D74">
-        <v>81</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1225,10 +1225,10 @@
         <v>4081</v>
       </c>
       <c r="C76">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D76">
-        <v>26</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1247,10 +1247,10 @@
         <v>4311</v>
       </c>
       <c r="C78">
-        <v>1903</v>
+        <v>1386</v>
       </c>
       <c r="D78">
-        <v>1903</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1269,10 +1269,10 @@
         <v>4945</v>
       </c>
       <c r="C80">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="D80">
-        <v>126</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1291,10 +1291,10 @@
         <v>5129</v>
       </c>
       <c r="C82">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="D82">
-        <v>23</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1313,10 +1313,10 @@
         <v>5232</v>
       </c>
       <c r="C84">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="D84">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1335,10 +1335,10 @@
         <v>5240</v>
       </c>
       <c r="C86">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D86">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1357,10 +1357,10 @@
         <v>5335</v>
       </c>
       <c r="C88">
-        <v>194</v>
+        <v>331</v>
       </c>
       <c r="D88">
-        <v>194</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1379,10 +1379,10 @@
         <v>5380</v>
       </c>
       <c r="C90">
-        <v>733</v>
+        <v>769</v>
       </c>
       <c r="D90">
-        <v>733</v>
+        <v>769</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1401,10 +1401,10 @@
         <v>5416</v>
       </c>
       <c r="C92">
-        <v>1896</v>
+        <v>1265</v>
       </c>
       <c r="D92">
-        <v>1896</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1423,10 +1423,10 @@
         <v>5825</v>
       </c>
       <c r="C94">
-        <v>904</v>
+        <v>714</v>
       </c>
       <c r="D94">
-        <v>904</v>
+        <v>714</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1445,10 +1445,10 @@
         <v>5854</v>
       </c>
       <c r="C96">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D96">
-        <v>15</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1467,10 +1467,10 @@
         <v>6022</v>
       </c>
       <c r="C98">
-        <v>699</v>
+        <v>499</v>
       </c>
       <c r="D98">
-        <v>699</v>
+        <v>499</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1489,10 +1489,10 @@
         <v>6037</v>
       </c>
       <c r="C100">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D100">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1511,10 +1511,10 @@
         <v>6047</v>
       </c>
       <c r="C102">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="D102">
-        <v>322</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1533,10 +1533,10 @@
         <v>6443</v>
       </c>
       <c r="C104">
-        <v>262</v>
+        <v>34</v>
       </c>
       <c r="D104">
-        <v>262</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1555,10 +1555,10 @@
         <v>6645</v>
       </c>
       <c r="C106">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="D106">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1577,10 +1577,10 @@
         <v>6740</v>
       </c>
       <c r="C108">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D108">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1599,10 +1599,10 @@
         <v>6795</v>
       </c>
       <c r="C110">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="D110">
-        <v>38</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1621,10 +1621,10 @@
         <v>7010</v>
       </c>
       <c r="C112">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="D112">
-        <v>124</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1643,10 +1643,10 @@
         <v>7054</v>
       </c>
       <c r="C114">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="D114">
-        <v>339</v>
+        <v>395</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1665,10 +1665,10 @@
         <v>7153</v>
       </c>
       <c r="C116">
-        <v>4666</v>
+        <v>4373</v>
       </c>
       <c r="D116">
-        <v>4666</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1687,10 +1687,10 @@
         <v>7156</v>
       </c>
       <c r="C118">
-        <v>739</v>
+        <v>778</v>
       </c>
       <c r="D118">
-        <v>739</v>
+        <v>778</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -1709,10 +1709,10 @@
         <v>7193</v>
       </c>
       <c r="C120">
-        <v>820</v>
+        <v>684</v>
       </c>
       <c r="D120">
-        <v>820</v>
+        <v>684</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -1731,10 +1731,10 @@
         <v>7248</v>
       </c>
       <c r="C122">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D122">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -1753,10 +1753,10 @@
         <v>7409</v>
       </c>
       <c r="C124">
-        <v>11</v>
+        <v>380</v>
       </c>
       <c r="D124">
-        <v>11</v>
+        <v>380</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -1775,10 +1775,10 @@
         <v>7491</v>
       </c>
       <c r="C126">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="D126">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -1797,10 +1797,10 @@
         <v>7695</v>
       </c>
       <c r="C128">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D128">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -1819,10 +1819,10 @@
         <v>7770</v>
       </c>
       <c r="C130">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="D130">
-        <v>260</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -1841,10 +1841,10 @@
         <v>7776</v>
       </c>
       <c r="C132">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D132">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -1863,10 +1863,10 @@
         <v>7982</v>
       </c>
       <c r="C134">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="D134">
-        <v>316</v>
+        <v>340</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -1885,10 +1885,10 @@
         <v>8619</v>
       </c>
       <c r="C136">
-        <v>2525</v>
+        <v>2541</v>
       </c>
       <c r="D136">
-        <v>2525</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -1907,10 +1907,10 @@
         <v>8637</v>
       </c>
       <c r="C138">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D138">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -1929,10 +1929,10 @@
         <v>8667</v>
       </c>
       <c r="C140">
-        <v>437</v>
+        <v>595</v>
       </c>
       <c r="D140">
-        <v>437</v>
+        <v>595</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -1951,10 +1951,10 @@
         <v>8832</v>
       </c>
       <c r="C142">
-        <v>1662</v>
+        <v>1703</v>
       </c>
       <c r="D142">
-        <v>1662</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -1973,10 +1973,10 @@
         <v>9074</v>
       </c>
       <c r="C144">
-        <v>1663</v>
+        <v>1704</v>
       </c>
       <c r="D144">
-        <v>1663</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1987,7 +1987,7 @@
         <v>708.8591549295775</v>
       </c>
       <c r="C145">
-        <v>698.6388888888889</v>
+        <v>684.7777777777778</v>
       </c>
     </row>
   </sheetData>
